--- a/story_xlsx_files_postpilotiiedits/32.xlsx
+++ b/story_xlsx_files_postpilotiiedits/32.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Before going through the metal detector, there was a pause in the security line to roll out the empty bin cart and roll in a filled one. </t>
   </si>
   <si>
-    <t xml:space="preserve">They placed everything in their bins. </t>
+    <t xml:space="preserve">Jeff and William placed everything into bins. </t>
   </si>
   <si>
     <t>Jeff mulled over the offer, nodding noncommittally to William's pitch as they proceeded through the metal detector.</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">He sat down in seat 4A in the business class section and typed out a quick email on his phone letting the rest of his team know the good news. </t>
   </si>
   <si>
-    <t>When the flight attendant came by, he ordered a glass of champagne to celebrate.</t>
+    <t>When the flight attendant came by, he ordered a glass of wine for himself.</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +1997,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" ht="68.05" customHeight="1">
+    <row r="34" ht="56.05" customHeight="1">
       <c r="A34" t="s" s="8">
         <v>36</v>
       </c>
